--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1_TR.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1_TR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1042B5EB-F0CA-4279-831B-C47174760CD3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{10132270-72F1-4196-ABFC-6E4E38598A58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="333">
   <si>
     <t>en_US</t>
   </si>
@@ -282,18 +282,12 @@
     <t>Savaş</t>
   </si>
   <si>
-    <t>KÖA</t>
-  </si>
-  <si>
     <t>En Büyük Seriye Bağlama</t>
   </si>
   <si>
     <t>En Büyük Çoklu Katletme</t>
   </si>
   <si>
-    <t>İlk Kann</t>
-  </si>
-  <si>
     <t>Verilen Hasar</t>
   </si>
   <si>
@@ -625,6 +619,414 @@
   </si>
   <si>
     <t>Pick Rate</t>
+  </si>
+  <si>
+    <t>Hakkımızda</t>
+  </si>
+  <si>
+    <t>İletişim</t>
+  </si>
+  <si>
+    <t>Son Maçlar</t>
+  </si>
+  <si>
+    <t>Şu An Yayınlanan Maç</t>
+  </si>
+  <si>
+    <t>Şu An Oynanan Maç</t>
+  </si>
+  <si>
+    <t>Şu An Oynanan Maçlar</t>
+  </si>
+  <si>
+    <t>Son Aramalar</t>
+  </si>
+  <si>
+    <t>Canlı Yayın</t>
+  </si>
+  <si>
+    <t>Favoriler</t>
+  </si>
+  <si>
+    <t>Şampiyonlar</t>
+  </si>
+  <si>
+    <t>Gece Modu</t>
+  </si>
+  <si>
+    <t>Canlı Yayın Sohbeti</t>
+  </si>
+  <si>
+    <t>Şu bölgeler hariç:</t>
+  </si>
+  <si>
+    <t>Batı Avrupa</t>
+  </si>
+  <si>
+    <t>Kore</t>
+  </si>
+  <si>
+    <t>Kuzey Amerika</t>
+  </si>
+  <si>
+    <t>Yükleniyor …</t>
+  </si>
+  <si>
+    <t>Daha fazla göster …</t>
+  </si>
+  <si>
+    <t>Ara …</t>
+  </si>
+  <si>
+    <t>Şampiyon ya da Pro ara …</t>
+  </si>
+  <si>
+    <t>Şampiyon ara …</t>
+  </si>
+  <si>
+    <t>Pro ara …</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere uygun maç bulunamadı!</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere uygun pro maç bulunamadı!</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere göre Pro bulunamadı!</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere göre şampiyon bulunamadı!</t>
+  </si>
+  <si>
+    <t>Bu URL'de şampiyon bulunamadı!</t>
+  </si>
+  <si>
+    <t>Bu URL'de Pro bulunamadı!</t>
+  </si>
+  <si>
+    <t>Bu URL'de maç bulunamadı!</t>
+  </si>
+  <si>
+    <t>Hata halinde bizle iletişime geçin</t>
+  </si>
+  <si>
+    <t>Mail başarıyla gönderildi</t>
+  </si>
+  <si>
+    <t>Mailinizi aldık ve en kısa zamanda cevap vereceğiz. İletişim kurduğunuz için teşekkürler</t>
+  </si>
+  <si>
+    <t>İsim</t>
+  </si>
+  <si>
+    <t>Konu</t>
+  </si>
+  <si>
+    <t>Mesaj</t>
+  </si>
+  <si>
+    <t>Bize bir mesaj bırakın</t>
+  </si>
+  <si>
+    <t>Paylaş</t>
+  </si>
+  <si>
+    <t>Bir hata oluştu</t>
+  </si>
+  <si>
+    <t>Lütfen iletişim formunu paylaşmadan önce CAPTCHA'yı çözün</t>
+  </si>
+  <si>
+    <t>Başka kriterler kullanmayı deneyin</t>
+  </si>
+  <si>
+    <t>maks</t>
+  </si>
+  <si>
+    <t>Maç Uzunluğu</t>
+  </si>
+  <si>
+    <t>Yakında başlıyor</t>
+  </si>
+  <si>
+    <t>Maça git</t>
+  </si>
+  <si>
+    <t>yaş {age}</t>
+  </si>
+  <si>
+    <t>Analiz</t>
+  </si>
+  <si>
+    <t>Tablolar</t>
+  </si>
+  <si>
+    <t>Skor tablosu</t>
+  </si>
+  <si>
+    <t>Rakip</t>
+  </si>
+  <si>
+    <t>Oynandı</t>
+  </si>
+  <si>
+    <t>{player} tarafından oynandı</t>
+  </si>
+  <si>
+    <t>Genel Bakış</t>
+  </si>
+  <si>
+    <t>Diğer Oyuncular</t>
+  </si>
+  <si>
+    <t>İstatistikler</t>
+  </si>
+  <si>
+    <t>Özet</t>
+  </si>
+  <si>
+    <t>En popüler</t>
+  </si>
+  <si>
+    <t>Eşya Satın Alma Sırası</t>
+  </si>
+  <si>
+    <t>Yetenek Geliştirme Sırası</t>
+  </si>
+  <si>
+    <t>Evrim Sırası</t>
+  </si>
+  <si>
+    <t>En Son Eşya Buildi</t>
+  </si>
+  <si>
+    <t>Anahtar Kabiliyet</t>
+  </si>
+  <si>
+    <t>Anahtar Rünler</t>
+  </si>
+  <si>
+    <t>Pozisyon</t>
+  </si>
+  <si>
+    <t>Yama {patch}</t>
+  </si>
+  <si>
+    <t>İzle</t>
+  </si>
+  <si>
+    <t>Mükemmel</t>
+  </si>
+  <si>
+    <t>Skor Katkısı</t>
+  </si>
+  <si>
+    <t>Üst Koridor</t>
+  </si>
+  <si>
+    <t>Orman</t>
+  </si>
+  <si>
+    <t>Orta Koridor</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Destek</t>
+  </si>
+  <si>
+    <t>Küme</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Bedava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesyonel Oyuncular </t>
+  </si>
+  <si>
+    <t>(If too long, use "prolar")</t>
+  </si>
+  <si>
+    <t>My Additions</t>
+  </si>
+  <si>
+    <t>If you meant "minute", use "dk" which is shorthand of dakika(minute)</t>
+  </si>
+  <si>
+    <t>Staring?</t>
+  </si>
+  <si>
+    <t>Player should come before the translation</t>
+  </si>
+  <si>
+    <t>This needs context</t>
+  </si>
+  <si>
+    <t>Free as a cost?</t>
+  </si>
+  <si>
+    <t>Kazandı</t>
+  </si>
+  <si>
+    <t>Oynanıyor</t>
+  </si>
+  <si>
+    <t>Yeniden Kurma</t>
+  </si>
+  <si>
+    <t>Zafer</t>
+  </si>
+  <si>
+    <t>Bozgun</t>
+  </si>
+  <si>
+    <t>En Popüler Buidler</t>
+  </si>
+  <si>
+    <t>En Popüler Eşyalar</t>
+  </si>
+  <si>
+    <t>Hedef</t>
+  </si>
+  <si>
+    <t>İndirim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evrim </t>
+  </si>
+  <si>
+    <t>Başlangıç Eşyaları</t>
+  </si>
+  <si>
+    <t>Başlangıç Ziyneti</t>
+  </si>
+  <si>
+    <t>En Son Ziynet</t>
+  </si>
+  <si>
+    <t>En Son Çizme</t>
+  </si>
+  <si>
+    <t>İlk Eşya</t>
+  </si>
+  <si>
+    <t>İlk İki Eşya</t>
+  </si>
+  <si>
+    <t>İlk Üç Eşya</t>
+  </si>
+  <si>
+    <t>Üçüncü Eşya</t>
+  </si>
+  <si>
+    <t>Dördüncü Eşya</t>
+  </si>
+  <si>
+    <t>Beşinci Eşya</t>
+  </si>
+  <si>
+    <t>Bize Ulaşın</t>
+  </si>
+  <si>
+    <t>Yasal Açıklama</t>
+  </si>
+  <si>
+    <t>Gizlilik Politikası</t>
+  </si>
+  <si>
+    <t>İlk Kan</t>
+  </si>
+  <si>
+    <t>İlk Kule Yok Edildi</t>
+  </si>
+  <si>
+    <t>İlk Kule {time}'da yok edildi</t>
+  </si>
+  <si>
+    <t>Pro Buildleri {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{patch} için Oynayışınızı Geliştirecek Profesyonel Oyunculardan En İyi Buildler, İstatistikler, Yetenek ve Eşya Sıraları ve çok daha fazlası.</t>
+  </si>
+  <si>
+    <t>{nickName} Eşya Dizilimleri {position} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Profesyonel Oyuncu {nickName} ({firstName} {lastName}) için En İyi Eşya dizilimleri! {nickname} {position}'da oynuyor.</t>
+  </si>
+  <si>
+    <t>{championName} Eyşa Dizilimleri {patch} {positions} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} Eşya Dizilimleri</t>
+  </si>
+  <si>
+    <t>{championName} Eşya Dizilimleri {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Eşya Dizilimi {patch} {position}</t>
+  </si>
+  <si>
+    <t>{championName} Rünleri {patch}</t>
+  </si>
+  <si>
+    <t>{championName} için Eşya Dizilimi Ara …</t>
+  </si>
+  <si>
+    <t>Eşya Dizilimleri</t>
+  </si>
+  <si>
+    <t>Önerilen Eşya Dizilimi</t>
+  </si>
+  <si>
+    <t>Rünler</t>
+  </si>
+  <si>
+    <t>{patch} {platform} {gameId}'de Pro Maç! | LoL VVV</t>
+  </si>
+  <si>
+    <t>{patch} yamasında Oynanan Pro Oyunlar: {prosList}</t>
+  </si>
+  <si>
+    <t>{championName} Eşya Dizilimi {patch} {position} vs {opponentName} by {nickName} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName}'nin {position} pozisyonunda {opponentName}'ye karşı {patch} yamasında oynadığı Eşya Dizilimleri. Yetenek ve Eşya Sıraları, Rünler ve çok daha fazlası.</t>
+  </si>
+  <si>
+    <t>Şampiyonlar {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Seçilme Oranı</t>
+  </si>
+  <si>
+    <t>Yasaklanma Oranı</t>
+  </si>
+  <si>
+    <t>Eşya Dizilimleri, Rehberler, Eşya ve Yetenek Sıraları {patch} ve bütün pozisyonlar için!</t>
+  </si>
+  <si>
+    <t>Prolar {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>(Geldim, gördüm, aldım) as Turkish</t>
+  </si>
+  <si>
+    <t>Bütün Dünyadan en iyi Eşya Dizimlerini, Rehberleri, Yetenek ve Eşya sıralarını profesyonellerden size sunuyoruz.</t>
+  </si>
+  <si>
+    <t>Proları canlı İzle | LoL VVV</t>
+  </si>
+  <si>
+    <t>Proları canlı izleyerek Dünyanın en iyi oyuncularından öğren</t>
+  </si>
+  <si>
+    <t>dk</t>
   </si>
 </sst>
 </file>
@@ -720,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -728,9 +1130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,7 +1149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1042,538 +1445,866 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1588,8 +2319,8 @@
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>84</v>
+      <c r="B105" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1597,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1605,15 +2336,15 @@
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>87</v>
+      <c r="B108" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1621,7 +2352,7 @@
         <v>31</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1629,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1637,7 +2368,7 @@
         <v>18</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1645,7 +2376,7 @@
         <v>19</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1653,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1661,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1669,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1677,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1685,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1693,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1701,7 +2432,7 @@
         <v>32</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1709,7 +2440,7 @@
         <v>21</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1717,7 +2448,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1725,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1733,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1741,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1749,7 +2480,7 @@
         <v>57</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1757,7 +2488,7 @@
         <v>22</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1765,7 +2496,7 @@
         <v>23</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1773,231 +2504,330 @@
         <v>24</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="B147" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>197</v>
+      <c r="B168" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
